--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -569,7 +569,8 @@
     <t>2036: fixed value = http://va.gov/fhir/vistaDefinedTerms/409.1#NSC "Not Service Connected" when OUTPATIENT ENCOUNTER - APPOINTMENT TYPE &gt; APPOINTMENT TYPE - NAME (409.68-.1 &gt; 409.1-.01) if Not SERVICE CONNECTED</t>
   </si>
   <si>
-    <t>Outpat.Visit.AppointmentTypeIEN,Outpat.Workload.AppointmentTypeIEN
+    <t>Outpat.Visit.AppointmentTypeIEN
+Outpat.Workload.AppointmentTypeIEN
 Dim.AppointmentType.AppointmentType</t>
   </si>
   <si>
@@ -748,10 +749,12 @@
     <t>429: source value based on VISIT - VISIT ID (9000010-15001)</t>
   </si>
   <si>
-    <t>Outpat.Visit.VisitIdentifier,Outpat.Workload.VisitIdentifier</t>
-  </si>
-  <si>
-    <t>Encounter.Extension[EncounterExtension].VisitID,Encounter.Extension[EncounterExtension].VisitID</t>
+    <t>Outpat.Visit.VisitIdentifier
+Outpat.Workload.VisitIdentifier</t>
+  </si>
+  <si>
+    <t>Encounter.Extension[EncounterExtension].VisitID
+Encounter.Extension[EncounterExtension].VisitID</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -832,13 +835,15 @@
     <t>432: fixed value = #finished when VISIT - CHECK OUT DATE&amp;TIME (9000010-.18) if not null, &lt; now</t>
   </si>
   <si>
-    <t>Outpat.Visit.CheckOutDateTime,Outpat.Workload.CheckOutDateTime</t>
+    <t>Outpat.Visit.CheckOutDateTime
+Outpat.Workload.CheckOutDateTime</t>
   </si>
   <si>
     <t>Encounter.ToTime</t>
   </si>
   <si>
-    <t>visit.dateTime,visit.visitString</t>
+    <t>visit.dateTime
+visit.visitString</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -922,7 +927,8 @@
     <t>614: terminologyMaps using VF_encounterClass on VISIT - PATIENT STATUS IN/OUT (9000010-15002)</t>
   </si>
   <si>
-    <t>Outpat.Visit.PatientStatusInOut,Outpat.Workload.PatientStatusInOut</t>
+    <t>Outpat.Visit.PatientStatusInOut
+Outpat.Workload.PatientStatusInOut</t>
   </si>
   <si>
     <t>visit.patientClass</t>
@@ -1000,13 +1006,24 @@
     <t>1615: source value based on V CPT - CPT &gt; CPT (9000010.18-.01 &gt; 81-)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.CPTIEN,Outpat.VProcedureCPTModifier.CPTIEN,Outpat.VProcedureDiagnosis.CPTIEN,Outpat.WorkloadVProcedure.CPTIEN,Outpat.WorkloadVProcedureCPTModifier.CPTIEN,Outpat.WorkloadVProcedureDiagnosis.CPTIEN</t>
-  </si>
-  <si>
-    <t>Encounter.Extension[EncounterExtension].Cpt,Encounter.Extension[EncounterExtension].Cpt,Procedure.Procedure,Procedure.Procedure[CodeTableDetail.Procedure].Code</t>
-  </si>
-  <si>
-    <t>visit.cpt [m] (&gt;81-.01),visit.cpt [m] (&gt;81-2),visit.type (&gt;81-.01),visit.type (&gt;81-2)</t>
+    <t>Outpat.VProcedure.CPTIEN
+Outpat.VProcedureCPTModifier.CPTIEN
+Outpat.VProcedureDiagnosis.CPTIEN
+Outpat.WorkloadVProcedure.CPTIEN
+Outpat.WorkloadVProcedureCPTModifier.CPTIEN
+Outpat.WorkloadVProcedureDiagnosis.CPTIEN</t>
+  </si>
+  <si>
+    <t>Encounter.Extension[EncounterExtension].Cpt
+Encounter.Extension[EncounterExtension].Cpt
+Procedure.Procedure
+Procedure.Procedure[CodeTableDetail.Procedure].Code</t>
+  </si>
+  <si>
+    <t>visit.cpt [m] (&gt;81-.01)
+visit.cpt [m] (&gt;81-2)
+visit.type (&gt;81-.01)
+visit.type (&gt;81-2)</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1123,8 +1140,14 @@
     <t>1615-2: source value based on V CPT - CPT &gt; CPT - CPT CODE (9000010.18-.01 &gt; 81-.01)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.CPTIEN,Outpat.VProcedureCPTModifier.CPTIEN,Outpat.VProcedureDiagnosis.CPTIEN,Outpat.WorkloadVProcedure.CPTIEN,Outpat.WorkloadVProcedureCPTModifier.CPTIEN,Outpat.WorkloadVProcedureDiagnosis.CPTIEN
-Dim.CPT.CPTCode,Dim.CPT.CPTCode</t>
+    <t>Outpat.VProcedure.CPTIEN
+Outpat.VProcedureCPTModifier.CPTIEN
+Outpat.VProcedureDiagnosis.CPTIEN
+Outpat.WorkloadVProcedure.CPTIEN
+Outpat.WorkloadVProcedureCPTModifier.CPTIEN
+Outpat.WorkloadVProcedureDiagnosis.CPTIEN
+Dim.CPT.CPTCode
+Dim.CPT.CPTCode</t>
   </si>
   <si>
     <t>./code</t>
@@ -1151,8 +1174,14 @@
     <t>1615-3: source value based on V CPT - CPT &gt; CPT - SHORT NAME (9000010.18-.01 &gt; 81-2)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.CPTIEN,Outpat.VProcedureCPTModifier.CPTIEN,Outpat.VProcedureDiagnosis.CPTIEN,Outpat.WorkloadVProcedure.CPTIEN,Outpat.WorkloadVProcedureCPTModifier.CPTIEN,Outpat.WorkloadVProcedureDiagnosis.CPTIEN
-Dim.CPT.CPTName,Dim.CPT.CPTName</t>
+    <t>Outpat.VProcedure.CPTIEN
+Outpat.VProcedureCPTModifier.CPTIEN
+Outpat.VProcedureDiagnosis.CPTIEN
+Outpat.WorkloadVProcedure.CPTIEN
+Outpat.WorkloadVProcedureCPTModifier.CPTIEN
+Outpat.WorkloadVProcedureDiagnosis.CPTIEN
+Dim.CPT.CPTName
+Dim.CPT.CPTName</t>
   </si>
   <si>
     <t>CV.displayName</t>
@@ -1270,13 +1299,17 @@
     <t>439: source value based on VISIT - SERVICE CATEGORY (9000010-.07)</t>
   </si>
   <si>
-    <t>Outpat.Visit.ServiceCategory,Outpat.Workload.ServiceCategory</t>
-  </si>
-  <si>
-    <t>Encounter.EncounterCodedType,Encounter.ExternalId,Encounter.ToTime</t>
-  </si>
-  <si>
-    <t>visit.serviceCategory,visit.visitString</t>
+    <t>Outpat.Visit.ServiceCategory
+Outpat.Workload.ServiceCategory</t>
+  </si>
+  <si>
+    <t>Encounter.EncounterCodedType
+Encounter.ExternalId
+Encounter.ToTime</t>
+  </si>
+  <si>
+    <t>visit.serviceCategory
+visit.visitString</t>
   </si>
   <si>
     <t>Encounter.serviceType.coding.display</t>
@@ -1332,7 +1365,8 @@
     <t>440: reference based on VISIT - PATIENT NAME &gt; PATIENT/IHS - NAME (9000010-.05 &gt; 9000001-.01)</t>
   </si>
   <si>
-    <t>Outpat.Visit.PatientIEN,Outpat.Workload.PatientIEN</t>
+    <t>Outpat.Visit.PatientIEN
+Outpat.Workload.PatientIEN</t>
   </si>
   <si>
     <t>Encounter.EncounterMRN</t>
@@ -1443,7 +1477,8 @@
     <t>1854: terminologyMaps using VF_encounterParticipationType on V PROVIDER - PRIMARY/SECONDARY (9000010.06-.04)</t>
   </si>
   <si>
-    <t>Outpat.VProvider.PrimarySecondary,Outpat.WorkloadVProvider.PrimarySecondary</t>
+    <t>Outpat.VProvider.PrimarySecondary
+Outpat.WorkloadVProvider.PrimarySecondary</t>
   </si>
   <si>
     <t>visit.provider [m]</t>
@@ -1492,13 +1527,15 @@
     <t>1614: reference based on V PROVIDER - PROVIDER &gt; NEW PERSON (9000010.06-.01 &gt; 200-)</t>
   </si>
   <si>
-    <t>Outpat.VProvider.ProviderIEN,Outpat.WorkloadVProvider.ProviderIEN</t>
+    <t>Outpat.VProvider.ProviderIEN
+Outpat.WorkloadVProvider.ProviderIEN</t>
   </si>
   <si>
     <t>Encounter.ConsultingClinicians</t>
   </si>
   <si>
-    <t>visit.provider [m] (&gt;200-.01),visit.provider [m] (&gt;200-8932.1)</t>
+    <t>visit.provider [m] (&gt;200-.01)
+visit.provider [m] (&gt;200-8932.1)</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1588,10 +1625,14 @@
     <t>443: source value based on VISIT - VISIT/ADMIT DATE&amp;TIME (9000010-.01)</t>
   </si>
   <si>
-    <t>Immun.ImmunizationContraRefusalEvent.VisitDateTime,Outpat.Visit.VisitDateTime,Outpat.VisitLogic.VisitDateTime,Outpat.Workload.VisitDateTime</t>
-  </si>
-  <si>
-    <t>Encounter.ConsultingClinician[CareProvider].Description,Encounter.ConsultingClinician[CareProvider].Name</t>
+    <t>Immun.ImmunizationContraRefusalEvent.VisitDateTime
+Outpat.Visit.VisitDateTime
+Outpat.VisitLogic.VisitDateTime
+Outpat.Workload.VisitDateTime</t>
+  </si>
+  <si>
+    <t>Encounter.ConsultingClinician[CareProvider].Description
+Encounter.ConsultingClinician[CareProvider].Name</t>
   </si>
   <si>
     <t>./low</t>
@@ -1716,14 +1757,22 @@
     <t>447: source value based on V POV - POV &gt; ICD DIAGNOSIS - CODE NUMBER (9000010.07-.01 &gt; 80-.01)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.ICDIEN,Outpat.WorkloadVDiagnosis.ICDIEN
-Dim.ICD10.ICD10Code,Dim.ICD9.ICD9Code</t>
-  </si>
-  <si>
-    <t>Diagnosis.Diagnosis,Diagnosis.Diagnosis[CodeTableDetail.Diagnosis].Code</t>
-  </si>
-  <si>
-    <t>visit.icd [m] (&gt;80-.01),visit.icd [m] (&gt;80-1.1),visit.icd [m] (&gt;80-10),visit.reason (&gt;80-.01),visit.reason (&gt;80-1.1),visit.reason (&gt;80-10)</t>
+    <t>Outpat.VDiagnosis.ICDIEN
+Outpat.WorkloadVDiagnosis.ICDIEN
+Dim.ICD10.ICD10Code
+Dim.ICD9.ICD9Code</t>
+  </si>
+  <si>
+    <t>Diagnosis.Diagnosis
+Diagnosis.Diagnosis[CodeTableDetail.Diagnosis].Code</t>
+  </si>
+  <si>
+    <t>visit.icd [m] (&gt;80-.01)
+visit.icd [m] (&gt;80-1.1)
+visit.icd [m] (&gt;80-10)
+visit.reason (&gt;80-.01)
+visit.reason (&gt;80-1.1)
+visit.reason (&gt;80-10)</t>
   </si>
   <si>
     <t>Encounter.reasonCode.coding.display</t>
@@ -1789,7 +1838,8 @@
     <t>452: reference based on V POV - PROBLEM LIST ENTRY (9000010.07-.16)</t>
   </si>
   <si>
-    <t>Outpat.VDiagnosis.ProblemListIEN,Outpat.WorkloadVDiagnosis.ProblemListIEN</t>
+    <t>Outpat.VDiagnosis.ProblemListIEN
+Outpat.WorkloadVDiagnosis.ProblemListIEN</t>
   </si>
   <si>
     <t>Diagnosis.Extension[DiagnosisExtension].ProblemId</t>
@@ -2179,7 +2229,10 @@
     <t>458: reference based on VISIT - DSS ID (9000010-.08)</t>
   </si>
   <si>
-    <t>Outpat.Visit.PrimaryStopCodeIEN,Outpat.Visit.SecondaryStopCodeIEN,Outpat.Workload.PrimaryStopCodeIEN,Outpat.Workload.SecondaryStopCodeIEN</t>
+    <t>Outpat.Visit.PrimaryStopCodeIEN
+Outpat.Visit.SecondaryStopCodeIEN
+Outpat.Workload.PrimaryStopCodeIEN
+Outpat.Workload.SecondaryStopCodeIEN</t>
   </si>
   <si>
     <t>Encounter.Extension[EncounterExtension].StopCode</t>
@@ -2218,13 +2271,17 @@
     <t>459: reference based on VISIT - HOSPITAL LOCATION (9000010-.22)</t>
   </si>
   <si>
-    <t>Outpat.Visit.LocationIEN,Outpat.Workload.LocationIEN</t>
-  </si>
-  <si>
-    <t>Encounter.ExternalId,Encounter.HealthCareFacility</t>
-  </si>
-  <si>
-    <t>visit.creditStopCode (&gt;44-2503),visit.location (&gt;44-.01),visit.visitString</t>
+    <t>Outpat.Visit.LocationIEN
+Outpat.Workload.LocationIEN</t>
+  </si>
+  <si>
+    <t>Encounter.ExternalId
+Encounter.HealthCareFacility</t>
+  </si>
+  <si>
+    <t>visit.creditStopCode (&gt;44-2503)
+visit.location (&gt;44-.01)
+visit.visitString</t>
   </si>
   <si>
     <t>Encounter.location:va-loc.status</t>
@@ -2252,13 +2309,17 @@
     <t>1599: reference based on VISIT - LOC. OF ENCOUNTER &gt; LOCATION - NAME (9000010-.06 &gt; 9999999.06-.01)</t>
   </si>
   <si>
-    <t>Outpat.Visit.InstitutionIEN,Outpat.Workload.InstitutionIEN</t>
-  </si>
-  <si>
-    <t>Encounter.EncounterMRNAA,Encounter.EncounterNumberAssigningAuthority,Encounter.EnteredAt</t>
-  </si>
-  <si>
-    <t>visit.facility (&gt;4-.01),visit.facility (&gt;4-99)</t>
+    <t>Outpat.Visit.InstitutionIEN
+Outpat.Workload.InstitutionIEN</t>
+  </si>
+  <si>
+    <t>Encounter.EncounterMRNAA
+Encounter.EncounterNumberAssigningAuthority
+Encounter.EnteredAt</t>
+  </si>
+  <si>
+    <t>visit.facility (&gt;4-.01)
+visit.facility (&gt;4-99)</t>
   </si>
   <si>
     <t>.particiaption[typeCode=PFM].role</t>
@@ -2653,9 +2714,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="183.578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="186.484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="135.4765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="106.20703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.3359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="745">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,10 +563,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eo-19-2035:If (409.68-.1 &gt; 409.1-.01) is SERVICE CONNECTED then fixed value http://va.gov/fhir/vistaDefinedTerms/409.1#SC "Service Connected" {true}eo-19-2036:If (409.68-.1 &gt; 409.1-.01) is Not SERVICE CONNECTED then fixed value http://va.gov/fhir/vistaDefinedTerms/409.1#NSC "Not Service Connected" {true}</t>
-  </si>
-  <si>
-    <t>2036: fixed value = http://va.gov/fhir/vistaDefinedTerms/409.1#NSC "Not Service Connected" when OUTPATIENT ENCOUNTER - APPOINTMENT TYPE &gt; APPOINTMENT TYPE - NAME (409.68-.1 &gt; 409.1-.01) if Not SERVICE CONNECTED</t>
+eo-19-2035:If (409.68-.1 &gt; 409.1-.01) is {.03&gt;9000010} SERVICE CONNECTED then fixed value http://va.gov/fhir/vistaDefinedTerms/409.1#SC "Service Connected" {true}eo-19-2036:If (409.68-.1 &gt; 409.1-.01) is {.03&gt;9000010}  Not SERVICE CONNECTED then fixed value http://va.gov/fhir/vistaDefinedTerms/409.1#NSC "Not Service Connected" {true}</t>
+  </si>
+  <si>
+    <t>2036: fixed value = http://va.gov/fhir/vistaDefinedTerms/409.1#NSC "Not Service Connected" when OUTPATIENT ENCOUNTER - APPOINTMENT TYPE &gt; APPOINTMENT TYPE - NAME (409.68-.1 &gt; 409.1-.01) if {.03&gt;9000010}  Not SERVICE CONNECTED</t>
   </si>
   <si>
     <t>Outpat.Visit.AppointmentTypeIEN
@@ -1003,7 +1003,11 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-encounter-type</t>
   </si>
   <si>
-    <t>1615: source value based on V CPT - CPT &gt; CPT (9000010.18-.01 &gt; 81-)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1615:If {.03&gt;9000010} then source value from (9000010.18-.01 &gt; 81-) {true}</t>
+  </si>
+  <si>
+    <t>1615: source value based on V CPT - CPT &gt; CPT (9000010.18-.01 &gt; 81-) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VProcedure.CPTIEN
@@ -1086,13 +1090,14 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.ama-assn.org/go/cpt</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
-    <t>1615-1: fixed value = http://www.ama-assn.org/go/cpt</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1615-1:If {.03&gt;9000010} then fixed value http://www.ama-assn.org/go/cpt {true}</t>
+  </si>
+  <si>
+    <t>1615-1: fixed value = http://www.ama-assn.org/go/cpt if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>./codeSystem</t>
@@ -1137,7 +1142,11 @@
     <t>Coding.code</t>
   </si>
   <si>
-    <t>1615-2: source value based on V CPT - CPT &gt; CPT - CPT CODE (9000010.18-.01 &gt; 81-.01)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1615-2:If {.03&gt;9000010} then source value from (9000010.18-.01 &gt; 81-.01) {true}</t>
+  </si>
+  <si>
+    <t>1615-2: source value based on V CPT - CPT &gt; CPT - CPT CODE (9000010.18-.01 &gt; 81-.01) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VProcedure.CPTIEN
@@ -1171,7 +1180,11 @@
     <t>Coding.display</t>
   </si>
   <si>
-    <t>1615-3: source value based on V CPT - CPT &gt; CPT - SHORT NAME (9000010.18-.01 &gt; 81-2)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1615-3:If {.03&gt;9000010} then source value from (9000010.18-.01 &gt; 81-2) {true}</t>
+  </si>
+  <si>
+    <t>1615-3: source value based on V CPT - CPT &gt; CPT - SHORT NAME (9000010.18-.01 &gt; 81-2) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VProcedure.CPTIEN
@@ -1236,7 +1249,11 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
-    <t>1615-4: source value based on V CPT - CPT &gt; CPT - SHORT NAME (9000010.18-.01 &gt; 81-2)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1615-4:If {.03&gt;9000010} then source value from (9000010.18-.01 &gt; 81-2) {true}</t>
+  </si>
+  <si>
+    <t>1615-4: source value based on V CPT - CPT &gt; CPT - SHORT NAME (9000010.18-.01 &gt; 81-2) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
@@ -1474,7 +1491,11 @@
     <t>http://va.gov/fhir/ValueSet/encounterParticipationType</t>
   </si>
   <si>
-    <t>1854: terminologyMaps using VF_encounterParticipationType on V PROVIDER - PRIMARY/SECONDARY (9000010.06-.04)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1854:If {.03&gt;9000010} then terminologyMaps (9000010.06-.04) using VF_encounterParticipationType {true}</t>
+  </si>
+  <si>
+    <t>1854: terminologyMaps using VF_encounterParticipationType on V PROVIDER - PRIMARY/SECONDARY (9000010.06-.04) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VProvider.PrimarySecondary
@@ -1524,7 +1545,11 @@
     <t>Persons involved in the encounter other than the patient.</t>
   </si>
   <si>
-    <t>1614: reference based on V PROVIDER - PROVIDER &gt; NEW PERSON (9000010.06-.01 &gt; 200-)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-1614:If {.03&gt;9000010} then reference /Practitioner based on (9000010.06-.01 &gt; 200-) {true}</t>
+  </si>
+  <si>
+    <t>1614: reference based on V PROVIDER - PROVIDER &gt; NEW PERSON (9000010.06-.01 &gt; 200-) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VProvider.ProviderIEN
@@ -1742,10 +1767,11 @@
     <t>Encounter.reasonCode.coding.system</t>
   </si>
   <si>
-    <t>urn:see-termmap-in-mapParameter</t>
-  </si>
-  <si>
-    <t>447-1: fixed value = urn:see-termmap-in-mapParameter</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-447-1:If {.03&gt;9000010} then fixed value urn:see-termmap-in-mapParameter {true}</t>
+  </si>
+  <si>
+    <t>447-1: fixed value = urn:see-termmap-in-mapParameter if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Encounter.reasonCode.coding.version</t>
@@ -1754,7 +1780,11 @@
     <t>Encounter.reasonCode.coding.code</t>
   </si>
   <si>
-    <t>447: source value based on V POV - POV &gt; ICD DIAGNOSIS - CODE NUMBER (9000010.07-.01 &gt; 80-.01)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-447:If {.03&gt;9000010} then source value from (9000010.07-.01 &gt; 80-.01) {true}</t>
+  </si>
+  <si>
+    <t>447: source value based on V POV - POV &gt; ICD DIAGNOSIS - CODE NUMBER (9000010.07-.01 &gt; 80-.01) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VDiagnosis.ICDIEN
@@ -1835,7 +1865,11 @@
     <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
   </si>
   <si>
-    <t>452: reference based on V POV - PROBLEM LIST ENTRY (9000010.07-.16)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eo-19-452:If {.03&gt;9000010} then reference /ConditionEncounterDiagnosis based on (9000010.07-.16) {true}</t>
+  </si>
+  <si>
+    <t>452: reference based on V POV - PROBLEM LIST ENTRY (9000010.07-.16) if {.03&gt;9000010}</t>
   </si>
   <si>
     <t>Outpat.VDiagnosis.ProblemListIEN
@@ -2713,7 +2747,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="183.578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="197.39453125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="45.3359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
@@ -7594,39 +7628,39 @@
         <v>84</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7747,10 +7781,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7873,10 +7907,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7902,16 +7936,16 @@
         <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7960,7 +7994,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7990,21 +8024,21 @@
         <v>84</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8125,10 +8159,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8251,10 +8285,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8280,16 +8314,16 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>84</v>
@@ -8299,7 +8333,7 @@
         <v>84</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>84</v>
@@ -8350,10 +8384,10 @@
         <v>84</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>84</v>
@@ -8368,21 +8402,21 @@
         <v>84</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8408,13 +8442,13 @@
         <v>151</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8464,7 +8498,7 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8494,21 +8528,21 @@
         <v>84</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8534,14 +8568,14 @@
         <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
@@ -8590,7 +8624,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8602,39 +8636,39 @@
         <v>84</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8660,14 +8694,14 @@
         <v>151</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8716,7 +8750,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8728,39 +8762,39 @@
         <v>84</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>368</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8783,19 +8817,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>84</v>
@@ -8844,7 +8878,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8874,21 +8908,21 @@
         <v>84</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8914,16 +8948,16 @@
         <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -8972,7 +9006,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8984,39 +9018,39 @@
         <v>84</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9042,10 +9076,10 @@
         <v>207</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -9072,31 +9106,31 @@
         <v>84</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -9123,7 +9157,7 @@
         <v>84</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>155</v>
@@ -9132,15 +9166,15 @@
         <v>84</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9261,10 +9295,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9387,10 +9421,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9416,16 +9450,16 @@
         <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>84</v>
@@ -9474,7 +9508,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9504,21 +9538,21 @@
         <v>84</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9639,10 +9673,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9765,10 +9799,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9794,16 +9828,16 @@
         <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9813,7 +9847,7 @@
         <v>84</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>84</v>
@@ -9867,7 +9901,7 @@
         <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>84</v>
@@ -9882,21 +9916,21 @@
         <v>84</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9922,13 +9956,13 @@
         <v>151</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9978,7 +10012,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -10008,21 +10042,21 @@
         <v>84</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10048,14 +10082,14 @@
         <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -10104,7 +10138,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -10119,36 +10153,36 @@
         <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10174,14 +10208,14 @@
         <v>151</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>84</v>
@@ -10230,7 +10264,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10260,21 +10294,21 @@
         <v>84</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10297,19 +10331,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>84</v>
@@ -10358,7 +10392,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10388,21 +10422,21 @@
         <v>84</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10428,16 +10462,16 @@
         <v>151</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -10486,7 +10520,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10516,21 +10550,21 @@
         <v>84</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR62" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10556,10 +10590,10 @@
         <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10586,13 +10620,13 @@
         <v>84</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>84</v>
@@ -10610,7 +10644,7 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10640,25 +10674,25 @@
         <v>84</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10677,16 +10711,16 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10736,7 +10770,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10751,36 +10785,36 @@
         <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10803,13 +10837,13 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10860,7 +10894,7 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10887,28 +10921,28 @@
         <v>84</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10927,13 +10961,13 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10984,7 +11018,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -11011,10 +11045,10 @@
         <v>84</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>84</v>
@@ -11025,10 +11059,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11054,10 +11088,10 @@
         <v>270</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -11108,7 +11142,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -11135,24 +11169,24 @@
         <v>84</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11273,10 +11307,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11399,10 +11433,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11527,10 +11561,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11556,13 +11590,13 @@
         <v>207</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11591,28 +11625,28 @@
         <v>172</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11624,39 +11658,39 @@
         <v>84</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11682,10 +11716,10 @@
         <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11736,7 +11770,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11751,7 +11785,7 @@
         <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>84</v>
@@ -11766,21 +11800,21 @@
         <v>84</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AQ72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR72" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11803,13 +11837,13 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11860,7 +11894,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11872,39 +11906,39 @@
         <v>84</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>104</v>
+        <v>482</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11927,13 +11961,13 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11984,7 +12018,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -12011,24 +12045,24 @@
         <v>84</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AQ74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR74" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12054,13 +12088,13 @@
         <v>240</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -12110,7 +12144,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -12137,24 +12171,24 @@
         <v>84</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12275,10 +12309,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12401,10 +12435,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12427,16 +12461,16 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12486,7 +12520,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12495,19 +12529,19 @@
         <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>264</v>
@@ -12516,21 +12550,21 @@
         <v>84</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR78" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12553,23 +12587,23 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q79" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>84</v>
@@ -12614,7 +12648,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12623,13 +12657,13 @@
         <v>92</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>262</v>
@@ -12644,21 +12678,21 @@
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR79" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12681,16 +12715,16 @@
         <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12740,7 +12774,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12767,28 +12801,28 @@
         <v>84</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR80" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12810,13 +12844,13 @@
         <v>207</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12845,28 +12879,28 @@
         <v>116</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Z81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF81" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12893,24 +12927,24 @@
         <v>84</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AR81" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13031,10 +13065,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13157,10 +13191,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13186,16 +13220,16 @@
         <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>84</v>
@@ -13244,7 +13278,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -13274,21 +13308,21 @@
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR84" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13409,10 +13443,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13535,10 +13569,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13564,16 +13598,16 @@
         <v>106</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -13583,7 +13617,7 @@
         <v>84</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>546</v>
+        <v>84</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>84</v>
@@ -13634,10 +13668,10 @@
         <v>84</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>104</v>
+        <v>552</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>84</v>
@@ -13652,21 +13686,21 @@
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR87" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13692,13 +13726,13 @@
         <v>151</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13748,7 +13782,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13778,21 +13812,21 @@
         <v>84</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR88" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13818,14 +13852,14 @@
         <v>112</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13874,7 +13908,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13886,39 +13920,39 @@
         <v>84</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>104</v>
+        <v>556</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AQ89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR89" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13944,14 +13978,14 @@
         <v>151</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>84</v>
@@ -14000,7 +14034,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -14030,21 +14064,21 @@
         <v>84</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AQ90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR90" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -14067,19 +14101,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -14128,7 +14162,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -14158,21 +14192,21 @@
         <v>84</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AQ91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR91" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14198,16 +14232,16 @@
         <v>151</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>84</v>
@@ -14256,7 +14290,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -14286,25 +14320,25 @@
         <v>84</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AQ92" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR92" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -14323,16 +14357,16 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -14382,7 +14416,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14397,7 +14431,7 @@
         <v>104</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>84</v>
@@ -14409,24 +14443,24 @@
         <v>84</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AR93" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14452,10 +14486,10 @@
         <v>270</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14506,7 +14540,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14536,7 +14570,7 @@
         <v>84</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AQ94" t="s" s="2">
         <v>84</v>
@@ -14547,10 +14581,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14671,10 +14705,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14797,10 +14831,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14925,14 +14959,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14951,16 +14985,16 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -15010,7 +15044,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>92</v>
@@ -15022,39 +15056,39 @@
         <v>84</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>104</v>
+        <v>580</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="AQ98" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AR98" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -15080,10 +15114,10 @@
         <v>207</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -15113,10 +15147,10 @@
         <v>116</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>84</v>
@@ -15134,7 +15168,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -15175,10 +15209,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15201,13 +15235,13 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -15258,7 +15292,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -15288,7 +15322,7 @@
         <v>84</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="AQ100" t="s" s="2">
         <v>84</v>
@@ -15299,10 +15333,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15325,16 +15359,16 @@
         <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -15384,7 +15418,7 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -15414,7 +15448,7 @@
         <v>84</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="AQ101" t="s" s="2">
         <v>84</v>
@@ -15425,10 +15459,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15454,13 +15488,13 @@
         <v>270</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -15510,7 +15544,7 @@
         <v>84</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -15525,7 +15559,7 @@
         <v>104</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>84</v>
@@ -15540,7 +15574,7 @@
         <v>84</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>84</v>
@@ -15551,10 +15585,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15675,10 +15709,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15801,10 +15835,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15929,10 +15963,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15958,10 +15992,10 @@
         <v>186</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -16012,7 +16046,7 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>82</v>
@@ -16048,15 +16082,15 @@
         <v>84</v>
       </c>
       <c r="AR106" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -16079,13 +16113,13 @@
         <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -16136,7 +16170,7 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -16166,7 +16200,7 @@
         <v>84</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>84</v>
@@ -16177,10 +16211,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16206,10 +16240,10 @@
         <v>207</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -16239,10 +16273,10 @@
         <v>116</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>84</v>
@@ -16260,7 +16294,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -16290,21 +16324,21 @@
         <v>84</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="AQ108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR108" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16330,10 +16364,10 @@
         <v>207</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -16360,13 +16394,13 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
@@ -16384,7 +16418,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>82</v>
@@ -16420,15 +16454,15 @@
         <v>84</v>
       </c>
       <c r="AR109" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16454,16 +16488,16 @@
         <v>207</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>84</v>
@@ -16488,13 +16522,13 @@
         <v>84</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>84</v>
@@ -16512,7 +16546,7 @@
         <v>84</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -16542,21 +16576,21 @@
         <v>84</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="AQ110" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR110" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16582,10 +16616,10 @@
         <v>207</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -16615,10 +16649,10 @@
         <v>116</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>84</v>
@@ -16636,7 +16670,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -16666,21 +16700,21 @@
         <v>84</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="AQ111" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR111" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16706,10 +16740,10 @@
         <v>207</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16739,10 +16773,10 @@
         <v>116</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>84</v>
@@ -16760,7 +16794,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -16790,21 +16824,21 @@
         <v>84</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR112" t="s" s="2">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16827,13 +16861,13 @@
         <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16884,7 +16918,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16914,21 +16948,21 @@
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="AQ113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR113" t="s" s="2">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16954,10 +16988,10 @@
         <v>207</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16987,10 +17021,10 @@
         <v>116</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>84</v>
@@ -17008,7 +17042,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -17038,21 +17072,21 @@
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR114" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -17078,13 +17112,13 @@
         <v>270</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -17122,7 +17156,7 @@
         <v>84</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="AC115" s="2"/>
       <c r="AD115" t="s" s="2">
@@ -17132,7 +17166,7 @@
         <v>141</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -17162,7 +17196,7 @@
         <v>84</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="AQ115" t="s" s="2">
         <v>84</v>
@@ -17173,10 +17207,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17297,10 +17331,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17423,10 +17457,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17551,10 +17585,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17577,13 +17611,13 @@
         <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -17634,7 +17668,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>92</v>
@@ -17661,24 +17695,24 @@
         <v>84</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AQ119" t="s" s="2">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="AR119" t="s" s="2">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17704,13 +17738,13 @@
         <v>112</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17739,10 +17773,10 @@
         <v>172</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -17760,7 +17794,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -17790,7 +17824,7 @@
         <v>84</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="AQ120" t="s" s="2">
         <v>84</v>
@@ -17801,10 +17835,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17830,13 +17864,13 @@
         <v>207</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17862,13 +17896,13 @@
         <v>84</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>84</v>
@@ -17886,7 +17920,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -17927,10 +17961,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17956,10 +17990,10 @@
         <v>240</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -18010,7 +18044,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -18040,7 +18074,7 @@
         <v>84</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AQ122" t="s" s="2">
         <v>84</v>
@@ -18051,13 +18085,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>84</v>
@@ -18082,13 +18116,13 @@
         <v>270</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -18138,7 +18172,7 @@
         <v>84</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>82</v>
@@ -18168,7 +18202,7 @@
         <v>84</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="AQ123" t="s" s="2">
         <v>84</v>
@@ -18179,10 +18213,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18303,10 +18337,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18429,10 +18463,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18557,10 +18591,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18583,13 +18617,13 @@
         <v>84</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18640,7 +18674,7 @@
         <v>84</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>92</v>
@@ -18655,36 +18689,36 @@
         <v>104</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AQ127" t="s" s="2">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="AR127" t="s" s="2">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18710,13 +18744,13 @@
         <v>112</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -18745,10 +18779,10 @@
         <v>172</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>84</v>
@@ -18766,7 +18800,7 @@
         <v>84</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>82</v>
@@ -18796,7 +18830,7 @@
         <v>84</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="AQ128" t="s" s="2">
         <v>84</v>
@@ -18807,10 +18841,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18836,13 +18870,13 @@
         <v>207</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -18868,13 +18902,13 @@
         <v>84</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>84</v>
@@ -18892,7 +18926,7 @@
         <v>84</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>82</v>
@@ -18933,10 +18967,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18962,10 +18996,10 @@
         <v>240</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -19016,7 +19050,7 @@
         <v>84</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>82</v>
@@ -19046,7 +19080,7 @@
         <v>84</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AQ130" t="s" s="2">
         <v>84</v>
@@ -19057,13 +19091,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>84</v>
@@ -19088,13 +19122,13 @@
         <v>270</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -19144,7 +19178,7 @@
         <v>84</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>82</v>
@@ -19174,7 +19208,7 @@
         <v>84</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="AQ131" t="s" s="2">
         <v>84</v>
@@ -19185,10 +19219,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19309,10 +19343,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19435,10 +19469,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19563,10 +19597,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19589,13 +19623,13 @@
         <v>84</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19646,7 +19680,7 @@
         <v>84</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>92</v>
@@ -19661,36 +19695,36 @@
         <v>104</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AQ135" t="s" s="2">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="AR135" t="s" s="2">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19716,13 +19750,13 @@
         <v>112</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19751,10 +19785,10 @@
         <v>172</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>84</v>
@@ -19772,7 +19806,7 @@
         <v>84</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>82</v>
@@ -19802,7 +19836,7 @@
         <v>84</v>
       </c>
       <c r="AP136" t="s" s="2">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="AQ136" t="s" s="2">
         <v>84</v>
@@ -19813,10 +19847,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19842,13 +19876,13 @@
         <v>207</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -19874,13 +19908,13 @@
         <v>84</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>84</v>
@@ -19898,7 +19932,7 @@
         <v>84</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>82</v>
@@ -19939,10 +19973,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19968,10 +20002,10 @@
         <v>240</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -20022,7 +20056,7 @@
         <v>84</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>82</v>
@@ -20052,7 +20086,7 @@
         <v>84</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AQ138" t="s" s="2">
         <v>84</v>
@@ -20063,10 +20097,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -20089,13 +20123,13 @@
         <v>84</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -20146,7 +20180,7 @@
         <v>84</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>82</v>
@@ -20161,36 +20195,36 @@
         <v>104</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="AQ139" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR139" t="s" s="2">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20213,16 +20247,16 @@
         <v>84</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -20272,7 +20306,7 @@
         <v>84</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -20299,10 +20333,10 @@
         <v>84</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="AP140" t="s" s="2">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="AQ140" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-EncounterOutpatient.xlsx
+++ b/docs/StructureDefinition-EncounterOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
